--- a/ToolboxForSimulator/condition/ADD_data.xlsx
+++ b/ToolboxForSimulator/condition/ADD_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tusedu-my.sharepoint.com/personal/7523068_ed_tus_ac_jp/Documents/授業/機械航空宇宙工学実験1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttake\MATLAB\Projects\3ME1_Experiment1\ToolboxForSimulator\condition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AD4D066CA252ABDACC104810E910FA9873EEDF5F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4829F249-455B-4825-A42E-0114255E8F1A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B3B10C-9CC8-48FF-8057-AD976DBED081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="405" windowWidth="21600" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -347,10 +347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -365,135 +365,135 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="B2" s="1">
-        <v>3.85</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>3.36</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B4" s="1">
-        <v>3.31</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="B5" s="1">
-        <v>3.35</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>3.28</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
-        <v>3.28</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1">
-        <v>3.27</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1">
-        <v>3.34</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1">
-        <v>3.33</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1">
-        <v>3.31</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1">
-        <v>3.35</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B16" s="1">
-        <v>3.31</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1">
-        <v>3.41</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="1">
         <v>3.41</v>
@@ -501,49 +501,57 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1">
-        <v>56.7</v>
+        <v>53</v>
       </c>
       <c r="B19" s="1">
-        <v>3.3</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1">
-        <v>61</v>
+        <v>56.7</v>
       </c>
       <c r="B20" s="1">
-        <v>3.27</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B21" s="1">
-        <v>3.28</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B22" s="1">
-        <v>3.25</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B23" s="1">
-        <v>3.26</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1">
+        <v>75</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
         <v>75.5</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B25" s="1">
         <v>3.35</v>
       </c>
     </row>
